--- a/biology/Botanique/Cypripedium/Cypripedium.xlsx
+++ b/biology/Botanique/Cypripedium/Cypripedium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypripedium est un genre de la famille des Orchidaceae (Orchidées) et de la sous-famille des Cypripedioideae. Ce sont des plantes à rhizome, aux feuilles alternes bien développées le long de la tige, aux grandes fleurs solitaires, à pollen granuleux visqueux, à labelle en forme de sabot. On les rencontre principalement dans la région circumboréale. On en connaît une quarantaine d'espèces.
-En Europe et Afrique (Algérie[1]) ce genre n'est représenté que par le sabot de Vénus (Cypripedium calceolus).
+En Europe et Afrique (Algérie) ce genre n'est représenté que par le sabot de Vénus (Cypripedium calceolus).
 En Amérique du Nord, plusieurs espèces sont présentes comme Cypripedium reginae (rose et blanc), Cypripedium parviflorum var. parviflorum, son cousin Cypripedium parviflorum pubescens (ressemblant beaucoup au Cypripedium calceolus européen), Cypripedium acaule, Cypripedium candidum, etc. Depuis quelques années, des croisements sont réalisés pour donner des plantes beaucoup plus résistantes à la culture domestique.
 Avec les genres Paphiopedilum, Mexipedium et Phragmipedium originaires des régions tropicales, elles partagent le même type de fleur aux caractères considérés comme primitifs.
 </t>
@@ -514,7 +526,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Cypripedium ont une répartition essentiellement circumboréale.
 </t>
@@ -545,7 +559,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec pedion = chausson, et du latin Sypria, surnom de Vénus : chausson de vénus, en référence à la forme des fleurs de ce taxon.
 </t>
@@ -576,7 +592,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cypripedium acaule Aiton : Cypripède acaule, en anglais : Mocassin Flower, Two-leaved Lady's-slipper (C. &amp; E. Canada, NC. &amp; E.USA).
 Cypripedium agnicapitatum (Mandchourie) = Cypripedium × ventricosum
